--- a/Errosefaltas.xlsx
+++ b/Errosefaltas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliez\Documents\PythonFundamentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliez\Documents\PythonProjects\BiosarFaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F1EA2-0D91-434A-BE7E-FA7C99FB2982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8E1DD4-9610-42AF-85E3-02EDAB94883F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="225">
   <si>
     <t>B0</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>Pirapora</t>
-  </si>
-  <si>
-    <t>BJL</t>
   </si>
   <si>
     <t>ECAT fault</t>
@@ -776,8 +773,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D798787F-C51A-4F58-9E01-6D39A067EFD2}" name="Tabela1" displayName="Tabela1" ref="A1:D434" totalsRowShown="0">
-  <autoFilter ref="A1:D434" xr:uid="{F45FF586-525D-4C07-BD57-5C76C7F4080B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D798787F-C51A-4F58-9E01-6D39A067EFD2}" name="Tabela1" displayName="Tabela1" ref="A1:D290" totalsRowShown="0">
+  <autoFilter ref="A1:D290" xr:uid="{F45FF586-525D-4C07-BD57-5C76C7F4080B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA18A262-73B5-41D7-9CB9-8F49D1A12585}" name="Planta"/>
     <tableColumn id="2" xr3:uid="{58D9C984-4514-4D85-95B9-771CA7EDE8B1}" name="Falta"/>
@@ -1051,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9CDF3F-AB0C-4368-90C4-4944E8B62F2A}">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1082,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1099,7 +1096,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1113,7 +1110,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1127,7 +1124,7 @@
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1141,7 +1138,7 @@
         <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1155,7 +1152,7 @@
         <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1169,7 +1166,7 @@
         <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1183,7 +1180,7 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1197,7 +1194,7 @@
         <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1211,7 +1208,7 @@
         <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1225,7 +1222,7 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1239,7 +1236,7 @@
         <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1253,7 +1250,7 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1267,7 +1264,7 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1281,7 +1278,7 @@
         <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1295,7 +1292,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1309,7 +1306,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -1323,7 +1320,7 @@
         <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1337,7 +1334,7 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1351,7 +1348,7 @@
         <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1365,7 +1362,7 @@
         <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1379,7 +1376,7 @@
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1393,7 +1390,7 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1407,7 +1404,7 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1421,7 +1418,7 @@
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1435,7 +1432,7 @@
         <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1449,7 +1446,7 @@
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -1463,7 +1460,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1477,7 +1474,7 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -1491,7 +1488,7 @@
         <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1505,7 +1502,7 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1519,7 +1516,7 @@
         <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -1533,7 +1530,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1547,7 +1544,7 @@
         <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1561,7 +1558,7 @@
         <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1575,7 +1572,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1589,7 +1586,7 @@
         <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1603,7 +1600,7 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -1617,7 +1614,7 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1631,7 +1628,7 @@
         <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1645,7 +1642,7 @@
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1659,7 +1656,7 @@
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -1673,7 +1670,7 @@
         <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -1687,7 +1684,7 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
@@ -1701,7 +1698,7 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
@@ -1715,7 +1712,7 @@
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -1729,7 +1726,7 @@
         <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
@@ -1743,7 +1740,7 @@
         <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -1757,7 +1754,7 @@
         <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -1771,7 +1768,7 @@
         <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1785,7 +1782,7 @@
         <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1799,7 +1796,7 @@
         <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1813,7 +1810,7 @@
         <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1827,7 +1824,7 @@
         <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -1841,7 +1838,7 @@
         <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1855,7 +1852,7 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -1869,7 +1866,7 @@
         <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1883,7 +1880,7 @@
         <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -1897,7 +1894,7 @@
         <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -1911,7 +1908,7 @@
         <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
         <v>21</v>
@@ -1925,7 +1922,7 @@
         <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -1939,7 +1936,7 @@
         <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -1953,7 +1950,7 @@
         <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
@@ -1967,7 +1964,7 @@
         <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
@@ -1981,7 +1978,7 @@
         <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -1995,7 +1992,7 @@
         <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -2009,7 +2006,7 @@
         <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -2023,7 +2020,7 @@
         <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2037,7 +2034,7 @@
         <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -2051,7 +2048,7 @@
         <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -2065,7 +2062,7 @@
         <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2079,7 +2076,7 @@
         <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2093,7 +2090,7 @@
         <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -2107,7 +2104,7 @@
         <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -2121,7 +2118,7 @@
         <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -2135,7 +2132,7 @@
         <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
         <v>21</v>
@@ -2149,7 +2146,7 @@
         <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -2163,7 +2160,7 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -2177,7 +2174,7 @@
         <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
@@ -2191,7 +2188,7 @@
         <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
@@ -2205,7 +2202,7 @@
         <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -2219,7 +2216,7 @@
         <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -2233,7 +2230,7 @@
         <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2247,7 +2244,7 @@
         <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -2261,7 +2258,7 @@
         <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2275,7 +2272,7 @@
         <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -2289,7 +2286,7 @@
         <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -2303,7 +2300,7 @@
         <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -2317,7 +2314,7 @@
         <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -2331,7 +2328,7 @@
         <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -2345,7 +2342,7 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -2359,7 +2356,7 @@
         <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
         <v>21</v>
@@ -2373,7 +2370,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
@@ -2387,7 +2384,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -2401,7 +2398,7 @@
         <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
@@ -2415,7 +2412,7 @@
         <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
@@ -2429,7 +2426,7 @@
         <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2443,7 +2440,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -2457,7 +2454,7 @@
         <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2471,7 +2468,7 @@
         <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2485,7 +2482,7 @@
         <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -2499,7 +2496,7 @@
         <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -2513,7 +2510,7 @@
         <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -2527,7 +2524,7 @@
         <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -2541,7 +2538,7 @@
         <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -2555,7 +2552,7 @@
         <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
@@ -2569,7 +2566,7 @@
         <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -2583,7 +2580,7 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
@@ -2597,7 +2594,7 @@
         <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
@@ -2611,7 +2608,7 @@
         <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
         <v>23</v>
@@ -2625,7 +2622,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
         <v>24</v>
@@ -2639,7 +2636,7 @@
         <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C113" t="s">
         <v>25</v>
@@ -2653,7 +2650,7 @@
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -2667,7 +2664,7 @@
         <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2681,7 +2678,7 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -2695,7 +2692,7 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -2709,7 +2706,7 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -2723,7 +2720,7 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -2737,7 +2734,7 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -2751,7 +2748,7 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -2765,7 +2762,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -2779,7 +2776,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
@@ -2793,7 +2790,7 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -2807,7 +2804,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
@@ -2821,7 +2818,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
@@ -2835,7 +2832,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -2849,7 +2846,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
         <v>24</v>
@@ -2863,7 +2860,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C129" t="s">
         <v>25</v>
@@ -2877,7 +2874,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -2891,7 +2888,7 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2905,7 +2902,7 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -2919,7 +2916,7 @@
         <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -2933,7 +2930,7 @@
         <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -2947,7 +2944,7 @@
         <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
@@ -2961,7 +2958,7 @@
         <v>127</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -2975,7 +2972,7 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -2989,7 +2986,7 @@
         <v>127</v>
       </c>
       <c r="B138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -3003,7 +3000,7 @@
         <v>127</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
@@ -3017,7 +3014,7 @@
         <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
@@ -3031,7 +3028,7 @@
         <v>127</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -3045,7 +3042,7 @@
         <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -3059,7 +3056,7 @@
         <v>127</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
@@ -3073,7 +3070,7 @@
         <v>127</v>
       </c>
       <c r="B144" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C144" t="s">
         <v>24</v>
@@ -3087,7 +3084,7 @@
         <v>127</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C145" t="s">
         <v>25</v>
@@ -3098,52 +3095,52 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -3154,24 +3151,24 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B151" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -3182,10 +3179,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
@@ -3196,374 +3193,374 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C155" t="s">
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B156" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C157" t="s">
         <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C160" t="s">
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C161" t="s">
         <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C166" t="s">
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C167" t="s">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C171" t="s">
         <v>18</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s">
         <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B173" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C173" t="s">
         <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C174" t="s">
         <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C175" t="s">
         <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C177" t="s">
         <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -3574,52 +3571,52 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B182" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C182" t="s">
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
@@ -3630,24 +3627,24 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B184" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B185" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
@@ -3658,10 +3655,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -3672,136 +3669,136 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C187" t="s">
         <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C188" t="s">
         <v>19</v>
       </c>
       <c r="D188" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B189" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C189" t="s">
         <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B190" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C190" t="s">
         <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C192" t="s">
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C193" t="s">
         <v>25</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B195" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B196" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -3812,220 +3809,220 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B200" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B201" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C203" t="s">
         <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C204" t="s">
         <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B205" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C205" t="s">
         <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B206" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C206" t="s">
         <v>22</v>
       </c>
       <c r="D206" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C207" t="s">
         <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B208" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B209" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C209" t="s">
         <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -4036,38 +4033,38 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C214" t="s">
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
         <v>10</v>
@@ -4078,10 +4075,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -4092,10 +4089,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -4106,10 +4103,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
         <v>16</v>
@@ -4120,192 +4117,192 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C219" t="s">
         <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" t="s">
         <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B222" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" t="s">
         <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223" t="s">
         <v>23</v>
       </c>
       <c r="D223" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B224" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C225" t="s">
         <v>25</v>
       </c>
       <c r="D225" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B228" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B229" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B230" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B231" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231" t="s">
         <v>10</v>
       </c>
       <c r="D231" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B232" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -4316,10 +4313,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
@@ -4330,122 +4327,122 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B234" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C234" t="s">
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
       </c>
       <c r="D235" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B236" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C236" t="s">
         <v>19</v>
       </c>
       <c r="D236" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C237" t="s">
         <v>21</v>
       </c>
       <c r="D237" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B238" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C238" t="s">
         <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B239" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C239" t="s">
         <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B240" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C240" t="s">
         <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B241" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C241" t="s">
         <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B242" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
@@ -4456,24 +4453,24 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B243" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B244" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C244" t="s">
         <v>4</v>
@@ -4484,192 +4481,192 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B245" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B246" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
       </c>
       <c r="D246" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B247" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C247" t="s">
         <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B248" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C248" t="s">
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B249" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B250" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C250" t="s">
         <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B251" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C251" t="s">
         <v>18</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B252" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C252" t="s">
         <v>19</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B253" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C253" t="s">
         <v>21</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B254" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C254" t="s">
         <v>22</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B255" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C255" t="s">
         <v>23</v>
       </c>
       <c r="D255" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B256" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C256" t="s">
         <v>24</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B257" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C257" t="s">
         <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -4680,10 +4677,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B259" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -4694,38 +4691,38 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B260" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C260" t="s">
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B261" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -4736,10 +4733,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B263" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C263" t="s">
         <v>10</v>
@@ -4750,38 +4747,38 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B264" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C264" t="s">
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B265" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B266" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C266" t="s">
         <v>16</v>
@@ -4792,24 +4789,24 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C267" t="s">
         <v>18</v>
       </c>
       <c r="D267" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B268" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C268" t="s">
         <v>19</v>
@@ -4820,10 +4817,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B269" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C269" t="s">
         <v>21</v>
@@ -4834,10 +4831,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B270" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C270" t="s">
         <v>22</v>
@@ -4848,10 +4845,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B271" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C271" t="s">
         <v>23</v>
@@ -4862,10 +4859,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B272" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C272" t="s">
         <v>24</v>
@@ -4876,10 +4873,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B273" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C273" t="s">
         <v>25</v>
@@ -4890,38 +4887,38 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B274" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
       </c>
       <c r="D274" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B275" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B276" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C276" t="s">
         <v>4</v>
@@ -4932,10 +4929,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B277" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -4946,10 +4943,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B278" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C278" t="s">
         <v>8</v>
@@ -4960,10 +4957,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B279" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C279" t="s">
         <v>10</v>
@@ -4974,10 +4971,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B280" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -4988,10 +4985,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B281" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
@@ -5002,10 +4999,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B282" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C282" t="s">
         <v>16</v>
@@ -5016,10 +5013,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B283" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C283" t="s">
         <v>18</v>
@@ -5030,24 +5027,24 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C284" t="s">
         <v>19</v>
       </c>
       <c r="D284" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B285" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C285" t="s">
         <v>21</v>
@@ -5058,2088 +5055,72 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B286" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C286" t="s">
         <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B287" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C287" t="s">
         <v>23</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B288" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C288" t="s">
         <v>24</v>
       </c>
       <c r="D288" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B289" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C289" t="s">
         <v>25</v>
       </c>
       <c r="D289" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B290" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
       </c>
       <c r="D290" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>137</v>
-      </c>
-      <c r="B291" t="s">
-        <v>221</v>
-      </c>
-      <c r="C291" t="s">
-        <v>2</v>
-      </c>
-      <c r="D291" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>137</v>
-      </c>
-      <c r="B292" t="s">
-        <v>221</v>
-      </c>
-      <c r="C292" t="s">
-        <v>4</v>
-      </c>
-      <c r="D292" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>137</v>
-      </c>
-      <c r="B293" t="s">
-        <v>221</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>137</v>
-      </c>
-      <c r="B294" t="s">
-        <v>221</v>
-      </c>
-      <c r="C294" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>137</v>
-      </c>
-      <c r="B295" t="s">
-        <v>221</v>
-      </c>
-      <c r="C295" t="s">
-        <v>10</v>
-      </c>
-      <c r="D295" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>137</v>
-      </c>
-      <c r="B296" t="s">
-        <v>221</v>
-      </c>
-      <c r="C296" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>137</v>
-      </c>
-      <c r="B297" t="s">
-        <v>221</v>
-      </c>
-      <c r="C297" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>137</v>
-      </c>
-      <c r="B298" t="s">
-        <v>221</v>
-      </c>
-      <c r="C298" t="s">
-        <v>16</v>
-      </c>
-      <c r="D298" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>137</v>
-      </c>
-      <c r="B299" t="s">
-        <v>221</v>
-      </c>
-      <c r="C299" t="s">
-        <v>18</v>
-      </c>
-      <c r="D299" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>137</v>
-      </c>
-      <c r="B300" t="s">
-        <v>221</v>
-      </c>
-      <c r="C300" t="s">
-        <v>19</v>
-      </c>
-      <c r="D300" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>137</v>
-      </c>
-      <c r="B301" t="s">
-        <v>221</v>
-      </c>
-      <c r="C301" t="s">
-        <v>21</v>
-      </c>
-      <c r="D301" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>137</v>
-      </c>
-      <c r="B302" t="s">
-        <v>221</v>
-      </c>
-      <c r="C302" t="s">
-        <v>22</v>
-      </c>
-      <c r="D302" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>137</v>
-      </c>
-      <c r="B303" t="s">
-        <v>221</v>
-      </c>
-      <c r="C303" t="s">
-        <v>23</v>
-      </c>
-      <c r="D303" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>137</v>
-      </c>
-      <c r="B304" t="s">
-        <v>221</v>
-      </c>
-      <c r="C304" t="s">
-        <v>24</v>
-      </c>
-      <c r="D304" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>137</v>
-      </c>
-      <c r="B305" t="s">
-        <v>221</v>
-      </c>
-      <c r="C305" t="s">
-        <v>25</v>
-      </c>
-      <c r="D305" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>137</v>
-      </c>
-      <c r="B306" t="s">
-        <v>222</v>
-      </c>
-      <c r="C306" t="s">
-        <v>0</v>
-      </c>
-      <c r="D306" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>137</v>
-      </c>
-      <c r="B307" t="s">
-        <v>222</v>
-      </c>
-      <c r="C307" t="s">
-        <v>2</v>
-      </c>
-      <c r="D307" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>137</v>
-      </c>
-      <c r="B308" t="s">
-        <v>222</v>
-      </c>
-      <c r="C308" t="s">
-        <v>4</v>
-      </c>
-      <c r="D308" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>137</v>
-      </c>
-      <c r="B309" t="s">
-        <v>222</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>137</v>
-      </c>
-      <c r="B310" t="s">
-        <v>222</v>
-      </c>
-      <c r="C310" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>137</v>
-      </c>
-      <c r="B311" t="s">
-        <v>222</v>
-      </c>
-      <c r="C311" t="s">
-        <v>10</v>
-      </c>
-      <c r="D311" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>137</v>
-      </c>
-      <c r="B312" t="s">
-        <v>222</v>
-      </c>
-      <c r="C312" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>137</v>
-      </c>
-      <c r="B313" t="s">
-        <v>222</v>
-      </c>
-      <c r="C313" t="s">
-        <v>14</v>
-      </c>
-      <c r="D313" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>137</v>
-      </c>
-      <c r="B314" t="s">
-        <v>222</v>
-      </c>
-      <c r="C314" t="s">
-        <v>16</v>
-      </c>
-      <c r="D314" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>137</v>
-      </c>
-      <c r="B315" t="s">
-        <v>222</v>
-      </c>
-      <c r="C315" t="s">
-        <v>18</v>
-      </c>
-      <c r="D315" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>137</v>
-      </c>
-      <c r="B316" t="s">
-        <v>222</v>
-      </c>
-      <c r="C316" t="s">
-        <v>19</v>
-      </c>
-      <c r="D316" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>137</v>
-      </c>
-      <c r="B317" t="s">
-        <v>222</v>
-      </c>
-      <c r="C317" t="s">
-        <v>21</v>
-      </c>
-      <c r="D317" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>137</v>
-      </c>
-      <c r="B318" t="s">
-        <v>222</v>
-      </c>
-      <c r="C318" t="s">
-        <v>22</v>
-      </c>
-      <c r="D318" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>137</v>
-      </c>
-      <c r="B319" t="s">
-        <v>222</v>
-      </c>
-      <c r="C319" t="s">
-        <v>23</v>
-      </c>
-      <c r="D319" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>137</v>
-      </c>
-      <c r="B320" t="s">
-        <v>222</v>
-      </c>
-      <c r="C320" t="s">
-        <v>24</v>
-      </c>
-      <c r="D320" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>137</v>
-      </c>
-      <c r="B321" t="s">
-        <v>222</v>
-      </c>
-      <c r="C321" t="s">
-        <v>25</v>
-      </c>
-      <c r="D321" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>137</v>
-      </c>
-      <c r="B322" t="s">
-        <v>223</v>
-      </c>
-      <c r="C322" t="s">
-        <v>0</v>
-      </c>
-      <c r="D322" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>137</v>
-      </c>
-      <c r="B323" t="s">
-        <v>223</v>
-      </c>
-      <c r="C323" t="s">
-        <v>2</v>
-      </c>
-      <c r="D323" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>137</v>
-      </c>
-      <c r="B324" t="s">
-        <v>223</v>
-      </c>
-      <c r="C324" t="s">
-        <v>4</v>
-      </c>
-      <c r="D324" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>137</v>
-      </c>
-      <c r="B325" t="s">
-        <v>223</v>
-      </c>
-      <c r="C325" t="s">
-        <v>6</v>
-      </c>
-      <c r="D325" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>137</v>
-      </c>
-      <c r="B326" t="s">
-        <v>223</v>
-      </c>
-      <c r="C326" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>137</v>
-      </c>
-      <c r="B327" t="s">
-        <v>223</v>
-      </c>
-      <c r="C327" t="s">
-        <v>10</v>
-      </c>
-      <c r="D327" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>137</v>
-      </c>
-      <c r="B328" t="s">
-        <v>223</v>
-      </c>
-      <c r="C328" t="s">
-        <v>12</v>
-      </c>
-      <c r="D328" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>137</v>
-      </c>
-      <c r="B329" t="s">
-        <v>223</v>
-      </c>
-      <c r="C329" t="s">
-        <v>14</v>
-      </c>
-      <c r="D329" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>137</v>
-      </c>
-      <c r="B330" t="s">
-        <v>223</v>
-      </c>
-      <c r="C330" t="s">
-        <v>16</v>
-      </c>
-      <c r="D330" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>137</v>
-      </c>
-      <c r="B331" t="s">
-        <v>223</v>
-      </c>
-      <c r="C331" t="s">
-        <v>18</v>
-      </c>
-      <c r="D331" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>137</v>
-      </c>
-      <c r="B332" t="s">
-        <v>223</v>
-      </c>
-      <c r="C332" t="s">
-        <v>19</v>
-      </c>
-      <c r="D332" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>137</v>
-      </c>
-      <c r="B333" t="s">
-        <v>223</v>
-      </c>
-      <c r="C333" t="s">
-        <v>21</v>
-      </c>
-      <c r="D333" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>137</v>
-      </c>
-      <c r="B334" t="s">
-        <v>223</v>
-      </c>
-      <c r="C334" t="s">
-        <v>22</v>
-      </c>
-      <c r="D334" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>137</v>
-      </c>
-      <c r="B335" t="s">
-        <v>223</v>
-      </c>
-      <c r="C335" t="s">
-        <v>23</v>
-      </c>
-      <c r="D335" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>137</v>
-      </c>
-      <c r="B336" t="s">
-        <v>223</v>
-      </c>
-      <c r="C336" t="s">
-        <v>24</v>
-      </c>
-      <c r="D336" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>137</v>
-      </c>
-      <c r="B337" t="s">
-        <v>223</v>
-      </c>
-      <c r="C337" t="s">
-        <v>25</v>
-      </c>
-      <c r="D337" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>137</v>
-      </c>
-      <c r="B338" t="s">
-        <v>224</v>
-      </c>
-      <c r="C338" t="s">
-        <v>0</v>
-      </c>
-      <c r="D338" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>137</v>
-      </c>
-      <c r="B339" t="s">
-        <v>224</v>
-      </c>
-      <c r="C339" t="s">
-        <v>2</v>
-      </c>
-      <c r="D339" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>137</v>
-      </c>
-      <c r="B340" t="s">
-        <v>224</v>
-      </c>
-      <c r="C340" t="s">
-        <v>4</v>
-      </c>
-      <c r="D340" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>137</v>
-      </c>
-      <c r="B341" t="s">
-        <v>224</v>
-      </c>
-      <c r="C341" t="s">
-        <v>6</v>
-      </c>
-      <c r="D341" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>137</v>
-      </c>
-      <c r="B342" t="s">
-        <v>224</v>
-      </c>
-      <c r="C342" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>137</v>
-      </c>
-      <c r="B343" t="s">
-        <v>224</v>
-      </c>
-      <c r="C343" t="s">
-        <v>10</v>
-      </c>
-      <c r="D343" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>137</v>
-      </c>
-      <c r="B344" t="s">
-        <v>224</v>
-      </c>
-      <c r="C344" t="s">
-        <v>12</v>
-      </c>
-      <c r="D344" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>137</v>
-      </c>
-      <c r="B345" t="s">
-        <v>224</v>
-      </c>
-      <c r="C345" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>137</v>
-      </c>
-      <c r="B346" t="s">
-        <v>224</v>
-      </c>
-      <c r="C346" t="s">
-        <v>16</v>
-      </c>
-      <c r="D346" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>137</v>
-      </c>
-      <c r="B347" t="s">
-        <v>224</v>
-      </c>
-      <c r="C347" t="s">
-        <v>18</v>
-      </c>
-      <c r="D347" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>137</v>
-      </c>
-      <c r="B348" t="s">
-        <v>224</v>
-      </c>
-      <c r="C348" t="s">
-        <v>19</v>
-      </c>
-      <c r="D348" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>137</v>
-      </c>
-      <c r="B349" t="s">
-        <v>224</v>
-      </c>
-      <c r="C349" t="s">
-        <v>21</v>
-      </c>
-      <c r="D349" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>137</v>
-      </c>
-      <c r="B350" t="s">
-        <v>224</v>
-      </c>
-      <c r="C350" t="s">
-        <v>22</v>
-      </c>
-      <c r="D350" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>137</v>
-      </c>
-      <c r="B351" t="s">
-        <v>224</v>
-      </c>
-      <c r="C351" t="s">
-        <v>23</v>
-      </c>
-      <c r="D351" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>137</v>
-      </c>
-      <c r="B352" t="s">
-        <v>224</v>
-      </c>
-      <c r="C352" t="s">
-        <v>24</v>
-      </c>
-      <c r="D352" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>137</v>
-      </c>
-      <c r="B353" t="s">
-        <v>224</v>
-      </c>
-      <c r="C353" t="s">
-        <v>25</v>
-      </c>
-      <c r="D353" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>137</v>
-      </c>
-      <c r="B354" t="s">
-        <v>216</v>
-      </c>
-      <c r="C354" t="s">
-        <v>0</v>
-      </c>
-      <c r="D354" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>137</v>
-      </c>
-      <c r="B355" t="s">
-        <v>216</v>
-      </c>
-      <c r="C355" t="s">
-        <v>2</v>
-      </c>
-      <c r="D355" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>137</v>
-      </c>
-      <c r="B356" t="s">
-        <v>216</v>
-      </c>
-      <c r="C356" t="s">
-        <v>4</v>
-      </c>
-      <c r="D356" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>137</v>
-      </c>
-      <c r="B357" t="s">
-        <v>216</v>
-      </c>
-      <c r="C357" t="s">
-        <v>6</v>
-      </c>
-      <c r="D357" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>137</v>
-      </c>
-      <c r="B358" t="s">
-        <v>216</v>
-      </c>
-      <c r="C358" t="s">
-        <v>8</v>
-      </c>
-      <c r="D358" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>137</v>
-      </c>
-      <c r="B359" t="s">
-        <v>216</v>
-      </c>
-      <c r="C359" t="s">
-        <v>10</v>
-      </c>
-      <c r="D359" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>137</v>
-      </c>
-      <c r="B360" t="s">
-        <v>216</v>
-      </c>
-      <c r="C360" t="s">
-        <v>12</v>
-      </c>
-      <c r="D360" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>137</v>
-      </c>
-      <c r="B361" t="s">
-        <v>216</v>
-      </c>
-      <c r="C361" t="s">
-        <v>14</v>
-      </c>
-      <c r="D361" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>137</v>
-      </c>
-      <c r="B362" t="s">
-        <v>216</v>
-      </c>
-      <c r="C362" t="s">
-        <v>16</v>
-      </c>
-      <c r="D362" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>137</v>
-      </c>
-      <c r="B363" t="s">
-        <v>216</v>
-      </c>
-      <c r="C363" t="s">
-        <v>18</v>
-      </c>
-      <c r="D363" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>137</v>
-      </c>
-      <c r="B364" t="s">
-        <v>216</v>
-      </c>
-      <c r="C364" t="s">
-        <v>19</v>
-      </c>
-      <c r="D364" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>137</v>
-      </c>
-      <c r="B365" t="s">
-        <v>216</v>
-      </c>
-      <c r="C365" t="s">
-        <v>21</v>
-      </c>
-      <c r="D365" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>137</v>
-      </c>
-      <c r="B366" t="s">
-        <v>216</v>
-      </c>
-      <c r="C366" t="s">
-        <v>22</v>
-      </c>
-      <c r="D366" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>137</v>
-      </c>
-      <c r="B367" t="s">
-        <v>216</v>
-      </c>
-      <c r="C367" t="s">
-        <v>23</v>
-      </c>
-      <c r="D367" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>137</v>
-      </c>
-      <c r="B368" t="s">
-        <v>216</v>
-      </c>
-      <c r="C368" t="s">
-        <v>24</v>
-      </c>
-      <c r="D368" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>137</v>
-      </c>
-      <c r="B369" t="s">
-        <v>216</v>
-      </c>
-      <c r="C369" t="s">
-        <v>25</v>
-      </c>
-      <c r="D369" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>137</v>
-      </c>
-      <c r="B370" t="s">
-        <v>217</v>
-      </c>
-      <c r="C370" t="s">
-        <v>0</v>
-      </c>
-      <c r="D370" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>137</v>
-      </c>
-      <c r="B371" t="s">
-        <v>217</v>
-      </c>
-      <c r="C371" t="s">
-        <v>2</v>
-      </c>
-      <c r="D371" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>137</v>
-      </c>
-      <c r="B372" t="s">
-        <v>217</v>
-      </c>
-      <c r="C372" t="s">
-        <v>4</v>
-      </c>
-      <c r="D372" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>137</v>
-      </c>
-      <c r="B373" t="s">
-        <v>217</v>
-      </c>
-      <c r="C373" t="s">
-        <v>6</v>
-      </c>
-      <c r="D373" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>137</v>
-      </c>
-      <c r="B374" t="s">
-        <v>217</v>
-      </c>
-      <c r="C374" t="s">
-        <v>8</v>
-      </c>
-      <c r="D374" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>137</v>
-      </c>
-      <c r="B375" t="s">
-        <v>217</v>
-      </c>
-      <c r="C375" t="s">
-        <v>10</v>
-      </c>
-      <c r="D375" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>137</v>
-      </c>
-      <c r="B376" t="s">
-        <v>217</v>
-      </c>
-      <c r="C376" t="s">
-        <v>12</v>
-      </c>
-      <c r="D376" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>137</v>
-      </c>
-      <c r="B377" t="s">
-        <v>217</v>
-      </c>
-      <c r="C377" t="s">
-        <v>14</v>
-      </c>
-      <c r="D377" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>137</v>
-      </c>
-      <c r="B378" t="s">
-        <v>217</v>
-      </c>
-      <c r="C378" t="s">
-        <v>16</v>
-      </c>
-      <c r="D378" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>137</v>
-      </c>
-      <c r="B379" t="s">
-        <v>217</v>
-      </c>
-      <c r="C379" t="s">
-        <v>18</v>
-      </c>
-      <c r="D379" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>137</v>
-      </c>
-      <c r="B380" t="s">
-        <v>217</v>
-      </c>
-      <c r="C380" t="s">
-        <v>19</v>
-      </c>
-      <c r="D380" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>137</v>
-      </c>
-      <c r="B381" t="s">
-        <v>217</v>
-      </c>
-      <c r="C381" t="s">
-        <v>21</v>
-      </c>
-      <c r="D381" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>137</v>
-      </c>
-      <c r="B382" t="s">
-        <v>217</v>
-      </c>
-      <c r="C382" t="s">
-        <v>22</v>
-      </c>
-      <c r="D382" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>137</v>
-      </c>
-      <c r="B383" t="s">
-        <v>217</v>
-      </c>
-      <c r="C383" t="s">
-        <v>23</v>
-      </c>
-      <c r="D383" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>137</v>
-      </c>
-      <c r="B384" t="s">
-        <v>217</v>
-      </c>
-      <c r="C384" t="s">
-        <v>24</v>
-      </c>
-      <c r="D384" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>137</v>
-      </c>
-      <c r="B385" t="s">
-        <v>217</v>
-      </c>
-      <c r="C385" t="s">
-        <v>25</v>
-      </c>
-      <c r="D385" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>137</v>
-      </c>
-      <c r="B386" t="s">
-        <v>218</v>
-      </c>
-      <c r="C386" t="s">
-        <v>0</v>
-      </c>
-      <c r="D386" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>137</v>
-      </c>
-      <c r="B387" t="s">
-        <v>218</v>
-      </c>
-      <c r="C387" t="s">
-        <v>2</v>
-      </c>
-      <c r="D387" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>137</v>
-      </c>
-      <c r="B388" t="s">
-        <v>218</v>
-      </c>
-      <c r="C388" t="s">
-        <v>4</v>
-      </c>
-      <c r="D388" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>137</v>
-      </c>
-      <c r="B389" t="s">
-        <v>218</v>
-      </c>
-      <c r="C389" t="s">
-        <v>6</v>
-      </c>
-      <c r="D389" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>137</v>
-      </c>
-      <c r="B390" t="s">
-        <v>218</v>
-      </c>
-      <c r="C390" t="s">
-        <v>8</v>
-      </c>
-      <c r="D390" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>137</v>
-      </c>
-      <c r="B391" t="s">
-        <v>218</v>
-      </c>
-      <c r="C391" t="s">
-        <v>10</v>
-      </c>
-      <c r="D391" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>137</v>
-      </c>
-      <c r="B392" t="s">
-        <v>218</v>
-      </c>
-      <c r="C392" t="s">
-        <v>12</v>
-      </c>
-      <c r="D392" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>137</v>
-      </c>
-      <c r="B393" t="s">
-        <v>218</v>
-      </c>
-      <c r="C393" t="s">
-        <v>14</v>
-      </c>
-      <c r="D393" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>137</v>
-      </c>
-      <c r="B394" t="s">
-        <v>218</v>
-      </c>
-      <c r="C394" t="s">
-        <v>16</v>
-      </c>
-      <c r="D394" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>137</v>
-      </c>
-      <c r="B395" t="s">
-        <v>218</v>
-      </c>
-      <c r="C395" t="s">
-        <v>18</v>
-      </c>
-      <c r="D395" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>137</v>
-      </c>
-      <c r="B396" t="s">
-        <v>218</v>
-      </c>
-      <c r="C396" t="s">
-        <v>19</v>
-      </c>
-      <c r="D396" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>137</v>
-      </c>
-      <c r="B397" t="s">
-        <v>218</v>
-      </c>
-      <c r="C397" t="s">
-        <v>21</v>
-      </c>
-      <c r="D397" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
-        <v>137</v>
-      </c>
-      <c r="B398" t="s">
-        <v>218</v>
-      </c>
-      <c r="C398" t="s">
-        <v>22</v>
-      </c>
-      <c r="D398" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
-        <v>137</v>
-      </c>
-      <c r="B399" t="s">
-        <v>218</v>
-      </c>
-      <c r="C399" t="s">
-        <v>23</v>
-      </c>
-      <c r="D399" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
-        <v>137</v>
-      </c>
-      <c r="B400" t="s">
-        <v>218</v>
-      </c>
-      <c r="C400" t="s">
-        <v>24</v>
-      </c>
-      <c r="D400" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
-        <v>137</v>
-      </c>
-      <c r="B401" t="s">
-        <v>218</v>
-      </c>
-      <c r="C401" t="s">
-        <v>25</v>
-      </c>
-      <c r="D401" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A402" t="s">
-        <v>137</v>
-      </c>
-      <c r="B402" t="s">
-        <v>219</v>
-      </c>
-      <c r="C402" t="s">
-        <v>0</v>
-      </c>
-      <c r="D402" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A403" t="s">
-        <v>137</v>
-      </c>
-      <c r="B403" t="s">
-        <v>219</v>
-      </c>
-      <c r="C403" t="s">
-        <v>2</v>
-      </c>
-      <c r="D403" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" t="s">
-        <v>137</v>
-      </c>
-      <c r="B404" t="s">
-        <v>219</v>
-      </c>
-      <c r="C404" t="s">
-        <v>4</v>
-      </c>
-      <c r="D404" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A405" t="s">
-        <v>137</v>
-      </c>
-      <c r="B405" t="s">
-        <v>219</v>
-      </c>
-      <c r="C405" t="s">
-        <v>6</v>
-      </c>
-      <c r="D405" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" t="s">
-        <v>137</v>
-      </c>
-      <c r="B406" t="s">
-        <v>219</v>
-      </c>
-      <c r="C406" t="s">
-        <v>8</v>
-      </c>
-      <c r="D406" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" t="s">
-        <v>137</v>
-      </c>
-      <c r="B407" t="s">
-        <v>219</v>
-      </c>
-      <c r="C407" t="s">
-        <v>10</v>
-      </c>
-      <c r="D407" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A408" t="s">
-        <v>137</v>
-      </c>
-      <c r="B408" t="s">
-        <v>219</v>
-      </c>
-      <c r="C408" t="s">
-        <v>12</v>
-      </c>
-      <c r="D408" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" t="s">
-        <v>137</v>
-      </c>
-      <c r="B409" t="s">
-        <v>219</v>
-      </c>
-      <c r="C409" t="s">
-        <v>14</v>
-      </c>
-      <c r="D409" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" t="s">
-        <v>137</v>
-      </c>
-      <c r="B410" t="s">
-        <v>219</v>
-      </c>
-      <c r="C410" t="s">
-        <v>16</v>
-      </c>
-      <c r="D410" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A411" t="s">
-        <v>137</v>
-      </c>
-      <c r="B411" t="s">
-        <v>219</v>
-      </c>
-      <c r="C411" t="s">
-        <v>18</v>
-      </c>
-      <c r="D411" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" t="s">
-        <v>137</v>
-      </c>
-      <c r="B412" t="s">
-        <v>219</v>
-      </c>
-      <c r="C412" t="s">
-        <v>19</v>
-      </c>
-      <c r="D412" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" t="s">
-        <v>137</v>
-      </c>
-      <c r="B413" t="s">
-        <v>219</v>
-      </c>
-      <c r="C413" t="s">
-        <v>21</v>
-      </c>
-      <c r="D413" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A414" t="s">
-        <v>137</v>
-      </c>
-      <c r="B414" t="s">
-        <v>219</v>
-      </c>
-      <c r="C414" t="s">
-        <v>22</v>
-      </c>
-      <c r="D414" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" t="s">
-        <v>137</v>
-      </c>
-      <c r="B415" t="s">
-        <v>219</v>
-      </c>
-      <c r="C415" t="s">
-        <v>23</v>
-      </c>
-      <c r="D415" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" t="s">
-        <v>137</v>
-      </c>
-      <c r="B416" t="s">
-        <v>219</v>
-      </c>
-      <c r="C416" t="s">
-        <v>24</v>
-      </c>
-      <c r="D416" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A417" t="s">
-        <v>137</v>
-      </c>
-      <c r="B417" t="s">
-        <v>219</v>
-      </c>
-      <c r="C417" t="s">
-        <v>25</v>
-      </c>
-      <c r="D417" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418" t="s">
-        <v>137</v>
-      </c>
-      <c r="B418" t="s">
-        <v>220</v>
-      </c>
-      <c r="C418" t="s">
-        <v>0</v>
-      </c>
-      <c r="D418" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" t="s">
-        <v>137</v>
-      </c>
-      <c r="B419" t="s">
-        <v>220</v>
-      </c>
-      <c r="C419" t="s">
-        <v>2</v>
-      </c>
-      <c r="D419" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A420" t="s">
-        <v>137</v>
-      </c>
-      <c r="B420" t="s">
-        <v>220</v>
-      </c>
-      <c r="C420" t="s">
-        <v>4</v>
-      </c>
-      <c r="D420" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" t="s">
-        <v>137</v>
-      </c>
-      <c r="B421" t="s">
-        <v>220</v>
-      </c>
-      <c r="C421" t="s">
-        <v>6</v>
-      </c>
-      <c r="D421" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" t="s">
-        <v>137</v>
-      </c>
-      <c r="B422" t="s">
-        <v>220</v>
-      </c>
-      <c r="C422" t="s">
-        <v>8</v>
-      </c>
-      <c r="D422" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423" t="s">
-        <v>137</v>
-      </c>
-      <c r="B423" t="s">
-        <v>220</v>
-      </c>
-      <c r="C423" t="s">
-        <v>10</v>
-      </c>
-      <c r="D423" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" t="s">
-        <v>137</v>
-      </c>
-      <c r="B424" t="s">
-        <v>220</v>
-      </c>
-      <c r="C424" t="s">
-        <v>12</v>
-      </c>
-      <c r="D424" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" t="s">
-        <v>137</v>
-      </c>
-      <c r="B425" t="s">
-        <v>220</v>
-      </c>
-      <c r="C425" t="s">
-        <v>14</v>
-      </c>
-      <c r="D425" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426" t="s">
-        <v>137</v>
-      </c>
-      <c r="B426" t="s">
-        <v>220</v>
-      </c>
-      <c r="C426" t="s">
-        <v>16</v>
-      </c>
-      <c r="D426" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427" t="s">
-        <v>137</v>
-      </c>
-      <c r="B427" t="s">
-        <v>220</v>
-      </c>
-      <c r="C427" t="s">
-        <v>18</v>
-      </c>
-      <c r="D427" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" t="s">
-        <v>137</v>
-      </c>
-      <c r="B428" t="s">
-        <v>220</v>
-      </c>
-      <c r="C428" t="s">
-        <v>19</v>
-      </c>
-      <c r="D428" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429" t="s">
-        <v>137</v>
-      </c>
-      <c r="B429" t="s">
-        <v>220</v>
-      </c>
-      <c r="C429" t="s">
-        <v>21</v>
-      </c>
-      <c r="D429" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430" t="s">
-        <v>137</v>
-      </c>
-      <c r="B430" t="s">
-        <v>220</v>
-      </c>
-      <c r="C430" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" t="s">
-        <v>137</v>
-      </c>
-      <c r="B431" t="s">
-        <v>220</v>
-      </c>
-      <c r="C431" t="s">
-        <v>23</v>
-      </c>
-      <c r="D431" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432" t="s">
-        <v>137</v>
-      </c>
-      <c r="B432" t="s">
-        <v>220</v>
-      </c>
-      <c r="C432" t="s">
-        <v>24</v>
-      </c>
-      <c r="D432" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" t="s">
-        <v>137</v>
-      </c>
-      <c r="B433" t="s">
-        <v>220</v>
-      </c>
-      <c r="C433" t="s">
-        <v>25</v>
-      </c>
-      <c r="D433" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" t="s">
-        <v>137</v>
-      </c>
-      <c r="B434" t="s">
-        <v>225</v>
-      </c>
-      <c r="C434" t="s">
-        <v>0</v>
-      </c>
-      <c r="D434" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7252,115 +5233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146:D161">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162:D177">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178:D193">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194:D209">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210:C225">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226:C241">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242:C257">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258:C273">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274:C289">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290:C434">
+  <conditionalFormatting sqref="C146:C290">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
